--- a/Test/report/excelReport/PersonAPITestCase.xlsx
+++ b/Test/report/excelReport/PersonAPITestCase.xlsx
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$M$2</definedName>
   </definedNames>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -557,23 +557,23 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <cols>
     <col width="10.375" customWidth="1" style="2" min="1" max="1"/>
     <col width="15.5" customWidth="1" style="2" min="2" max="2"/>
-    <col width="14.625" customWidth="1" style="2" min="3" max="3"/>
-    <col width="39.375" customWidth="1" style="2" min="4" max="4"/>
+    <col width="13.25" customWidth="1" style="2" min="3" max="3"/>
+    <col width="36.125" customWidth="1" style="2" min="4" max="4"/>
     <col width="8.25" customWidth="1" style="2" min="5" max="5"/>
-    <col width="21.375" customWidth="1" style="2" min="6" max="6"/>
+    <col width="12.25" customWidth="1" style="2" min="6" max="6"/>
     <col width="38.875" customWidth="1" style="2" min="7" max="7"/>
-    <col width="28" customWidth="1" style="2" min="8" max="8"/>
-    <col width="12.875" customWidth="1" style="5" min="9" max="9"/>
-    <col width="12.125" customWidth="1" style="5" min="10" max="10"/>
-    <col width="24.125" customWidth="1" style="2" min="11" max="11"/>
+    <col width="18.25" customWidth="1" style="2" min="8" max="8"/>
+    <col width="8.75" customWidth="1" style="5" min="9" max="9"/>
+    <col width="8" customWidth="1" style="5" min="10" max="10"/>
+    <col width="12.25" customWidth="1" style="2" min="11" max="11"/>
     <col width="10.25" customWidth="1" style="2" min="13" max="13"/>
   </cols>
   <sheetData>
@@ -714,7 +714,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="65.25" customHeight="1" s="2">
+    <row r="3" ht="80.25" customHeight="1" s="2">
       <c r="A3" s="3" t="inlineStr">
         <is>
           <t>查询人事</t>
@@ -772,7 +772,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="65.25" customHeight="1" s="2">
+    <row r="4" ht="80.25" customHeight="1" s="2">
       <c r="A4" s="3" t="inlineStr">
         <is>
           <t>查询人事</t>
@@ -830,7 +830,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="65.25" customHeight="1" s="2">
+    <row r="5" ht="80.25" customHeight="1" s="2">
       <c r="A5" s="3" t="inlineStr">
         <is>
           <t>修改人事</t>
@@ -900,7 +900,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="65.25" customHeight="1" s="2">
+    <row r="6" ht="80.25" customHeight="1" s="2">
       <c r="A6" s="3" t="inlineStr">
         <is>
           <t>删除人事</t>
